--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS4.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS4.xlsx
@@ -19,7 +19,238 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="147">
+  <si>
+    <t>Signal_Value_2</t>
+  </si>
+  <si>
+    <t>Signal_Value_3</t>
+  </si>
+  <si>
+    <t>Signal_Value_4</t>
+  </si>
+  <si>
+    <t>Signal_Value_5</t>
+  </si>
+  <si>
+    <t>Signal_Value_6</t>
+  </si>
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
+  </si>
+  <si>
+    <t>Signal_Value_77</t>
+  </si>
+  <si>
+    <t>Signal_Value_78</t>
+  </si>
   <si>
     <t>Signal_Value_79</t>
   </si>
@@ -150,6 +381,9 @@
     <t>Signal_Value_121</t>
   </si>
   <si>
+    <t>Signal_Value_122</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -222,10 +456,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -586,15 +817,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR6"/>
+  <dimension ref="A1:DR6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:122">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -725,10 +956,244 @@
       <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:122">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -737,13 +1202,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.08103569251494777</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.1979754886209218</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -755,103 +1220,103 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.06760633518357728</v>
       </c>
       <c r="K2">
-        <v>0.006321657456616911</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.02460555568849745</v>
+        <v>0.1443015369231151</v>
       </c>
       <c r="M2">
-        <v>0.001355981065715657</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.05982542243418317</v>
+        <v>0.09778226978805717</v>
       </c>
       <c r="O2">
-        <v>0.004434186454828398</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.06006084960059929</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.03551269515605284</v>
+        <v>0.005625361316453962</v>
       </c>
       <c r="R2">
-        <v>0.001213183045328754</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.01720856440784172</v>
+        <v>0.05800249381622394</v>
       </c>
       <c r="T2">
-        <v>0.02494710611032354</v>
+        <v>0.04976424217939956</v>
       </c>
       <c r="U2">
-        <v>0.0439536689355153</v>
+        <v>0.001197470255259126</v>
       </c>
       <c r="V2">
-        <v>0.02229671326387824</v>
+        <v>0.03706325047086259</v>
       </c>
       <c r="W2">
-        <v>0.001935266019200315</v>
+        <v>0.02936244998954474</v>
       </c>
       <c r="X2">
-        <v>0.04613595150844595</v>
+        <v>0.02654021617368724</v>
       </c>
       <c r="Y2">
-        <v>0.06562661451503347</v>
+        <v>0.01040438421014485</v>
       </c>
       <c r="Z2">
-        <v>0.05004881858106407</v>
+        <v>0.05805175735225206</v>
       </c>
       <c r="AA2">
-        <v>0.0129240598424129</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.06827539332314023</v>
       </c>
       <c r="AC2">
-        <v>0.01759304901098282</v>
+        <v>0.03067300052985027</v>
       </c>
       <c r="AD2">
-        <v>0.06385309919891059</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.08945892447249529</v>
+        <v>0.01483610801904826</v>
       </c>
       <c r="AF2">
-        <v>0.08302362083015635</v>
+        <v>0.02015620332395641</v>
       </c>
       <c r="AG2">
-        <v>0.04938643866601709</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.009702158346546787</v>
+        <v>0.001346346009557833</v>
       </c>
       <c r="AI2">
-        <v>0.0006793815732451542</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.02642105460744706</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.05775471926894138</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0544455906720609</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.02491317634683046</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0128890920135618</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.01606940797185842</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.01540399293540809</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -859,10 +1324,244 @@
       <c r="AR2">
         <v>0</v>
       </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:122">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -892,100 +1591,100 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.003800416219561396</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.007515967115351781</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.01107983846553457</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.04667044363250786</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.02802277585386791</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.03826485197368699</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.06063778087744037</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.00139316971537941</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.01217833741490959</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.01829013884998243</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.05330223153792773</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.04404599497249994</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>5.603513278279049E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.04221778863136072</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.07906768894401764</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0613443995017031</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.02141372598092002</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0001280807995330217</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.01215564155498624</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.05325474700535505</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.08830267405931282</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.08595125047916327</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.05733494460010131</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.01426954512397261</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>3.94409694004208E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.009562470692829797</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.03462437348603421</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.04814548650824639</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.02865008021447623</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0118528718251382</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.01188955491369192</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.01453725294832401</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -993,10 +1692,244 @@
       <c r="AR3">
         <v>0</v>
       </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0.02528220327964742</v>
+      </c>
+      <c r="CM3">
+        <v>0.01751130978684404</v>
+      </c>
+      <c r="CN3">
+        <v>0.1353550334957306</v>
+      </c>
+      <c r="CO3">
+        <v>0.01483157249435666</v>
+      </c>
+      <c r="CP3">
+        <v>0.01270219596861456</v>
+      </c>
+      <c r="CQ3">
+        <v>0.05631193898371596</v>
+      </c>
+      <c r="CR3">
+        <v>0.05481275016895484</v>
+      </c>
+      <c r="CS3">
+        <v>0.03132874125995598</v>
+      </c>
+      <c r="CT3">
+        <v>0.02337308003807992</v>
+      </c>
+      <c r="CU3">
+        <v>0.09013801410926199</v>
+      </c>
+      <c r="CV3">
+        <v>0.08708755165642057</v>
+      </c>
+      <c r="CW3">
+        <v>0.0120756631510274</v>
+      </c>
+      <c r="CX3">
+        <v>0.02944103454356794</v>
+      </c>
+      <c r="CY3">
+        <v>0.03017904396644588</v>
+      </c>
+      <c r="CZ3">
+        <v>0.02286503665837489</v>
+      </c>
+      <c r="DA3">
+        <v>0.004629790079734177</v>
+      </c>
+      <c r="DB3">
+        <v>0.08015037545260656</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0.01032473636559007</v>
+      </c>
+      <c r="DE3">
+        <v>0.03603081958787488</v>
+      </c>
+      <c r="DF3">
+        <v>0.1000288419270769</v>
+      </c>
+      <c r="DG3">
+        <v>0.01051492808089713</v>
+      </c>
+      <c r="DH3">
+        <v>0.01643077925327836</v>
+      </c>
+      <c r="DI3">
+        <v>0.0001112524850030853</v>
+      </c>
+      <c r="DJ3">
+        <v>0.02304025943113796</v>
+      </c>
+      <c r="DK3">
+        <v>0.01941033281489043</v>
+      </c>
+      <c r="DL3">
+        <v>0.0242503751196983</v>
+      </c>
+      <c r="DM3">
+        <v>0.004381125537854079</v>
+      </c>
+      <c r="DN3">
+        <v>0.02682804124186785</v>
+      </c>
+      <c r="DO3">
+        <v>0.0002069098029113218</v>
+      </c>
+      <c r="DP3">
+        <v>0.0002953432150709149</v>
+      </c>
+      <c r="DQ3">
+        <v>7.092004350917564E-05</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:122">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1032,105 +1965,339 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.01411040494641593</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.06291996650939694</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0171181934404213</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.08207827420807086</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.004107479037107024</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.08493630473292769</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.02053459906115702</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.008730815659204296</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.01426396418841773</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.03734716851080102</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.05413256835376948</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.005948218724989298</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.01549683771261672</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0671273145449188</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.06671684514857003</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03514102403574081</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.002346316542240236</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.004157630043139109</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.03168819283432727</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.06726267891021437</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.07476532924414758</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.05604109573559598</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.02294434092836527</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.001665009572068217</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.002835479093832066</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.01966852866230244</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.03709718555820881</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.04020828018047765</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0166841550775643</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.009698991972933241</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.01384698856068203</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.008379818269376496</v>
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0.07745581808357163</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0.05580587082880744</v>
+      </c>
+      <c r="CP4">
+        <v>0.01939977446515654</v>
+      </c>
+      <c r="CQ4">
+        <v>0.07057175559899589</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0.048650937367808</v>
+      </c>
+      <c r="CT4">
+        <v>0.007332097354089673</v>
+      </c>
+      <c r="CU4">
+        <v>0.09230539527402257</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0.0003854809696366109</v>
+      </c>
+      <c r="CY4">
+        <v>0.02684618062842709</v>
+      </c>
+      <c r="CZ4">
+        <v>0.008637991899831821</v>
+      </c>
+      <c r="DA4">
+        <v>0.02829176665593984</v>
+      </c>
+      <c r="DB4">
+        <v>0.06096057856050568</v>
+      </c>
+      <c r="DC4">
+        <v>0.1176491089975171</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0.06427143537721326</v>
+      </c>
+      <c r="DF4">
+        <v>0.06543898073167356</v>
+      </c>
+      <c r="DG4">
+        <v>0.008724261436727547</v>
+      </c>
+      <c r="DH4">
+        <v>0.048650937367808</v>
+      </c>
+      <c r="DI4">
+        <v>0.02599968398864604</v>
+      </c>
+      <c r="DJ4">
+        <v>0.0004824013585213842</v>
+      </c>
+      <c r="DK4">
+        <v>0.01153365596444764</v>
+      </c>
+      <c r="DL4">
+        <v>0.05529650808565018</v>
+      </c>
+      <c r="DM4">
+        <v>0.03989393357301183</v>
+      </c>
+      <c r="DN4">
+        <v>0.02515429443437386</v>
+      </c>
+      <c r="DO4">
+        <v>0.01644734063719758</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>0.02336976180978876</v>
+      </c>
+      <c r="DR4">
+        <v>0.0004440485506304329</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:122">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1139,100 +2306,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.007717755286723671</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01965475931607064</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0001621571887696153</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.03698944090466815</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.004111010257792269</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0418339084403462</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04194647978670809</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2.092852351691639E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.01739951979679185</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.01144128654617038</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.03203197431994447</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.02234434499972289</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0003246256485479224</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.02876670082397037</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.05171086412737507</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.04203664957603426</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.01569758011864914</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0002347321400600587</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.009747102124043235</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.04147604205716166</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.07931042018946448</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.1172454392791508</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.07309427995623596</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.01415013696505779</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0001159031663046107</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.02268170681306902</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.06260605662539387</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.08618146380384084</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.05592063597576317</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.02286431070004708</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0192062541801467</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.02097553036245909</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1261,10 +2428,244 @@
       <c r="AR5">
         <v>0</v>
       </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0.03548486661658995</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0.09318922161634383</v>
+      </c>
+      <c r="CN5">
+        <v>0.01058481931013694</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0.01235229798223304</v>
+      </c>
+      <c r="CQ5">
+        <v>0.03001017691577985</v>
+      </c>
+      <c r="CR5">
+        <v>0.03017639582020968</v>
+      </c>
+      <c r="CS5">
+        <v>0.09865893374837191</v>
+      </c>
+      <c r="CT5">
+        <v>0.1228778812585847</v>
+      </c>
+      <c r="CU5">
+        <v>0.07002048606593295</v>
+      </c>
+      <c r="CV5">
+        <v>0.007802076070957414</v>
+      </c>
+      <c r="CW5">
+        <v>0.01206934920486772</v>
+      </c>
+      <c r="CX5">
+        <v>0.03549625503578265</v>
+      </c>
+      <c r="CY5">
+        <v>0.0008925803372916249</v>
+      </c>
+      <c r="CZ5">
+        <v>0.04205099743006532</v>
+      </c>
+      <c r="DA5">
+        <v>0.0893489209913943</v>
+      </c>
+      <c r="DB5">
+        <v>0.04152852166433196</v>
+      </c>
+      <c r="DC5">
+        <v>0.0114064414543488</v>
+      </c>
+      <c r="DD5">
+        <v>0.0186064510346386</v>
+      </c>
+      <c r="DE5">
+        <v>0.05444958022596103</v>
+      </c>
+      <c r="DF5">
+        <v>0.04419740216334925</v>
+      </c>
+      <c r="DG5">
+        <v>0.01799878898211842</v>
+      </c>
+      <c r="DH5">
+        <v>0.0005678648979764268</v>
+      </c>
+      <c r="DI5">
+        <v>0.0146003402278217</v>
+      </c>
+      <c r="DJ5">
+        <v>0.04264107093385732</v>
+      </c>
+      <c r="DK5">
+        <v>0.03449290284250055</v>
+      </c>
+      <c r="DL5">
+        <v>0.01229143951540864</v>
+      </c>
+      <c r="DM5">
+        <v>0.00766109298463966</v>
+      </c>
+      <c r="DN5">
+        <v>0.00313470075677098</v>
+      </c>
+      <c r="DO5">
+        <v>0.00199417231114465</v>
+      </c>
+      <c r="DP5">
+        <v>0.003413971600590054</v>
+      </c>
+      <c r="DQ5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:122">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1294,105 +2695,339 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.004885723138668546</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.007885964030955478</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.01127905389566634</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.041938755578146</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04178345352353921</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.04466657487673167</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.09742857423281139</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.004237544234685692</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.03042514859074818</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.03195633292000296</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0323384358503224</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.02559735523879863</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0004691636448630967</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.03195674958279727</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.05128729781053109</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.03932095068921471</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.01569174771037779</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0009488018055475802</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.003924119164035044</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.03172711822927509</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.06519020100808937</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.08140756057637002</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.06091704113321245</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.01863368050258924</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001494351879384606</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.005198896925646328</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.02512352605190488</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.05143946975019541</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.06542951977157936</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.03148360325992754</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.01993519284083943</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.02399809155254318</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
         <v>0</v>
       </c>
       <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0.1121575723337941</v>
+      </c>
+      <c r="CN6">
+        <v>0.001771109822543395</v>
+      </c>
+      <c r="CO6">
+        <v>0.07775123708799139</v>
+      </c>
+      <c r="CP6">
+        <v>0.01025037109743773</v>
+      </c>
+      <c r="CQ6">
+        <v>0.02181248322923958</v>
+      </c>
+      <c r="CR6">
+        <v>0.003093763110836993</v>
+      </c>
+      <c r="CS6">
+        <v>0.0590993925008969</v>
+      </c>
+      <c r="CT6">
+        <v>0.010038318228265</v>
+      </c>
+      <c r="CU6">
+        <v>0.05946815594835018</v>
+      </c>
+      <c r="CV6">
+        <v>0.05265743387263393</v>
+      </c>
+      <c r="CW6">
+        <v>0.03269250099598111</v>
+      </c>
+      <c r="CX6">
+        <v>0.005957501067122156</v>
+      </c>
+      <c r="CY6">
+        <v>9.786018300318027E-05</v>
+      </c>
+      <c r="CZ6">
+        <v>0.0003450034172781139</v>
+      </c>
+      <c r="DA6">
+        <v>0.002107446800117401</v>
+      </c>
+      <c r="DB6">
+        <v>0.07083794202452534</v>
+      </c>
+      <c r="DC6">
+        <v>0.1443712538034953</v>
+      </c>
+      <c r="DD6">
+        <v>0.03730160734912918</v>
+      </c>
+      <c r="DE6">
+        <v>0.0509601423951314</v>
+      </c>
+      <c r="DF6">
+        <v>0.007009330445491176</v>
+      </c>
+      <c r="DG6">
+        <v>0.02290210724212206</v>
+      </c>
+      <c r="DH6">
+        <v>0.04310743710536455</v>
+      </c>
+      <c r="DI6">
+        <v>0.02131342464396421</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0.01934951732404573</v>
+      </c>
+      <c r="DL6">
+        <v>0.07170246424378542</v>
+      </c>
+      <c r="DM6">
+        <v>0.03515266680914531</v>
+      </c>
+      <c r="DN6">
+        <v>0.01666060092476917</v>
+      </c>
+      <c r="DO6">
+        <v>9.012117879551996E-05</v>
+      </c>
+      <c r="DP6">
+        <v>0.00139738620616627</v>
+      </c>
+      <c r="DQ6">
+        <v>0.008543848608578168</v>
+      </c>
+      <c r="DR6">
         <v>0</v>
       </c>
     </row>
@@ -1403,15 +3038,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR6"/>
+  <dimension ref="A1:DR6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:122">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1542,10 +3177,244 @@
       <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:122">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1554,118 +3423,118 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.08103569251494777</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.08103569251494777</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.2790111811358695</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.2790111811358695</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2790111811358695</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2790111811358695</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3466175163194468</v>
       </c>
       <c r="K2">
-        <v>0.006321657456616911</v>
+        <v>0.3466175163194468</v>
       </c>
       <c r="L2">
-        <v>0.03092721314511437</v>
+        <v>0.4909190532425619</v>
       </c>
       <c r="M2">
-        <v>0.03228319421083002</v>
+        <v>0.4909190532425619</v>
       </c>
       <c r="N2">
-        <v>0.09210861664501319</v>
+        <v>0.5887013230306191</v>
       </c>
       <c r="O2">
-        <v>0.09654280309984159</v>
+        <v>0.5887013230306191</v>
       </c>
       <c r="P2">
-        <v>0.1566036527004409</v>
+        <v>0.5887013230306191</v>
       </c>
       <c r="Q2">
-        <v>0.1921163478564937</v>
+        <v>0.594326684347073</v>
       </c>
       <c r="R2">
-        <v>0.1933295309018225</v>
+        <v>0.594326684347073</v>
       </c>
       <c r="S2">
-        <v>0.2105380953096642</v>
+        <v>0.6523291781632969</v>
       </c>
       <c r="T2">
-        <v>0.2354852014199877</v>
+        <v>0.7020934203426965</v>
       </c>
       <c r="U2">
-        <v>0.279438870355503</v>
+        <v>0.7032908905979557</v>
       </c>
       <c r="V2">
-        <v>0.3017355836193812</v>
+        <v>0.7403541410688183</v>
       </c>
       <c r="W2">
-        <v>0.3036708496385815</v>
+        <v>0.769716591058363</v>
       </c>
       <c r="X2">
-        <v>0.3498068011470275</v>
+        <v>0.7962568072320502</v>
       </c>
       <c r="Y2">
-        <v>0.415433415662061</v>
+        <v>0.8066611914421951</v>
       </c>
       <c r="Z2">
-        <v>0.4654822342431251</v>
+        <v>0.8647129487944472</v>
       </c>
       <c r="AA2">
-        <v>0.478406294085538</v>
+        <v>0.8647129487944472</v>
       </c>
       <c r="AB2">
-        <v>0.478406294085538</v>
+        <v>0.9329883421175874</v>
       </c>
       <c r="AC2">
-        <v>0.4959993430965208</v>
+        <v>0.9636613426474376</v>
       </c>
       <c r="AD2">
-        <v>0.5598524422954314</v>
+        <v>0.9636613426474376</v>
       </c>
       <c r="AE2">
-        <v>0.6493113667679267</v>
+        <v>0.9784974506664859</v>
       </c>
       <c r="AF2">
-        <v>0.732334987598083</v>
+        <v>0.9986536539904423</v>
       </c>
       <c r="AG2">
-        <v>0.7817214262641001</v>
+        <v>0.9986536539904423</v>
       </c>
       <c r="AH2">
-        <v>0.7914235846106469</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.7921029661838921</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.8185240207913391</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.8762787400602805</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0.9307243307323414</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>0.9556375070791718</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>0.9685265990927336</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>0.984596007064592</v>
+        <v>1</v>
       </c>
       <c r="AP2">
         <v>1</v>
@@ -1676,10 +3545,244 @@
       <c r="AR2">
         <v>1</v>
       </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
+        <v>1</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>1</v>
+      </c>
+      <c r="BV2">
+        <v>1</v>
+      </c>
+      <c r="BW2">
+        <v>1</v>
+      </c>
+      <c r="BX2">
+        <v>1</v>
+      </c>
+      <c r="BY2">
+        <v>1</v>
+      </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>1</v>
+      </c>
+      <c r="CD2">
+        <v>1</v>
+      </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2">
+        <v>1</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>1</v>
+      </c>
+      <c r="CM2">
+        <v>1</v>
+      </c>
+      <c r="CN2">
+        <v>1</v>
+      </c>
+      <c r="CO2">
+        <v>1</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>1</v>
+      </c>
+      <c r="CR2">
+        <v>1</v>
+      </c>
+      <c r="CS2">
+        <v>1</v>
+      </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
+      <c r="CX2">
+        <v>1</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>1</v>
+      </c>
+      <c r="DA2">
+        <v>1</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DD2">
+        <v>1</v>
+      </c>
+      <c r="DE2">
+        <v>1</v>
+      </c>
+      <c r="DF2">
+        <v>1</v>
+      </c>
+      <c r="DG2">
+        <v>1</v>
+      </c>
+      <c r="DH2">
+        <v>1</v>
+      </c>
+      <c r="DI2">
+        <v>1</v>
+      </c>
+      <c r="DJ2">
+        <v>1</v>
+      </c>
+      <c r="DK2">
+        <v>1</v>
+      </c>
+      <c r="DL2">
+        <v>1</v>
+      </c>
+      <c r="DM2">
+        <v>1</v>
+      </c>
+      <c r="DN2">
+        <v>1</v>
+      </c>
+      <c r="DO2">
+        <v>1</v>
+      </c>
+      <c r="DP2">
+        <v>1</v>
+      </c>
+      <c r="DQ2">
+        <v>1</v>
+      </c>
+      <c r="DR2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:122">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1709,111 +3812,345 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.003800416219561396</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.01131638333491318</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.02239622180044774</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0690666654329556</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.09708944128682351</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.1353542932605105</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.1959920741379509</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.1973852438533303</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2095635812682399</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.2278537201182223</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.28115595165615</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.32520194662865</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.3252579817614328</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.3674757703927935</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.4465434593368112</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.5078878588385143</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.5293015848194343</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.5294296656189673</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.5415853071739536</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.5948400541793086</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.6831427282386214</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.7690939787177847</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8264289233178861</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.8406984684418587</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.8407379094112591</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.8503003801040889</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.8849247535901231</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.9330702400983695</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.9617203203128457</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.9735731921379839</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.9854627470516758</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.9999999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0.02528220327964742</v>
+      </c>
+      <c r="CM3">
+        <v>0.04279351306649146</v>
+      </c>
+      <c r="CN3">
+        <v>0.178148546562222</v>
+      </c>
+      <c r="CO3">
+        <v>0.1929801190565787</v>
+      </c>
+      <c r="CP3">
+        <v>0.2056823150251932</v>
+      </c>
+      <c r="CQ3">
+        <v>0.2619942540089092</v>
+      </c>
+      <c r="CR3">
+        <v>0.316807004177864</v>
+      </c>
+      <c r="CS3">
+        <v>0.34813574543782</v>
+      </c>
+      <c r="CT3">
+        <v>0.3715088254758999</v>
+      </c>
+      <c r="CU3">
+        <v>0.4616468395851619</v>
+      </c>
+      <c r="CV3">
+        <v>0.5487343912415825</v>
+      </c>
+      <c r="CW3">
+        <v>0.5608100543926099</v>
+      </c>
+      <c r="CX3">
+        <v>0.5902510889361778</v>
+      </c>
+      <c r="CY3">
+        <v>0.6204301329026237</v>
+      </c>
+      <c r="CZ3">
+        <v>0.6432951695609986</v>
+      </c>
+      <c r="DA3">
+        <v>0.6479249596407328</v>
+      </c>
+      <c r="DB3">
+        <v>0.7280753350933393</v>
+      </c>
+      <c r="DC3">
+        <v>0.7280753350933393</v>
+      </c>
+      <c r="DD3">
+        <v>0.7384000714589294</v>
+      </c>
+      <c r="DE3">
+        <v>0.7744308910468043</v>
+      </c>
+      <c r="DF3">
+        <v>0.8744597329738811</v>
+      </c>
+      <c r="DG3">
+        <v>0.8849746610547783</v>
+      </c>
+      <c r="DH3">
+        <v>0.9014054403080567</v>
+      </c>
+      <c r="DI3">
+        <v>0.9015166927930598</v>
+      </c>
+      <c r="DJ3">
+        <v>0.9245569522241978</v>
+      </c>
+      <c r="DK3">
+        <v>0.9439672850390882</v>
+      </c>
+      <c r="DL3">
+        <v>0.9682176601587865</v>
+      </c>
+      <c r="DM3">
+        <v>0.9725987856966406</v>
+      </c>
+      <c r="DN3">
+        <v>0.9994268269385085</v>
+      </c>
+      <c r="DO3">
+        <v>0.9996337367414198</v>
+      </c>
+      <c r="DP3">
+        <v>0.9999290799564907</v>
+      </c>
+      <c r="DQ3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DR3">
+        <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:122">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1849,105 +4186,339 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.01411040494641593</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.07703037145581286</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.09414856489623416</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.176226839104305</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.1803343181414121</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.2652706228743398</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2858052219354968</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.2945360375947011</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.3088000017831188</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.3461471702939198</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.4002797386476893</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.4062279573726786</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.4217247950852953</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.4888521096302141</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.5555689547787841</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.5907099788145249</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.5930562953567652</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.5972139253999043</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.6289021182342315</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.6961647971444458</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7709301263885934</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.8269712221241894</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.8499155630525547</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.8515805726246228</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.8544160517184549</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.8740845803807573</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.9111817659389662</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.9513900461194438</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.968074201197008</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.9777731931699413</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.9916201817306233</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.9999999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0.07745581808357163</v>
+      </c>
+      <c r="CN4">
+        <v>0.07745581808357163</v>
+      </c>
+      <c r="CO4">
+        <v>0.1332616889123791</v>
+      </c>
+      <c r="CP4">
+        <v>0.1526614633775356</v>
+      </c>
+      <c r="CQ4">
+        <v>0.2232332189765315</v>
+      </c>
+      <c r="CR4">
+        <v>0.2232332189765315</v>
+      </c>
+      <c r="CS4">
+        <v>0.2718841563443395</v>
+      </c>
+      <c r="CT4">
+        <v>0.2792162536984292</v>
+      </c>
+      <c r="CU4">
+        <v>0.3715216489724518</v>
+      </c>
+      <c r="CV4">
+        <v>0.3715216489724518</v>
+      </c>
+      <c r="CW4">
+        <v>0.3715216489724518</v>
+      </c>
+      <c r="CX4">
+        <v>0.3719071299420884</v>
+      </c>
+      <c r="CY4">
+        <v>0.3987533105705154</v>
+      </c>
+      <c r="CZ4">
+        <v>0.4073913024703473</v>
+      </c>
+      <c r="DA4">
+        <v>0.4356830691262871</v>
+      </c>
+      <c r="DB4">
+        <v>0.4966436476867928</v>
+      </c>
+      <c r="DC4">
+        <v>0.6142927566843098</v>
+      </c>
+      <c r="DD4">
+        <v>0.6142927566843098</v>
+      </c>
+      <c r="DE4">
+        <v>0.6785641920615231</v>
+      </c>
+      <c r="DF4">
+        <v>0.7440031727931966</v>
+      </c>
+      <c r="DG4">
+        <v>0.7527274342299242</v>
+      </c>
+      <c r="DH4">
+        <v>0.8013783715977322</v>
+      </c>
+      <c r="DI4">
+        <v>0.8273780555863782</v>
+      </c>
+      <c r="DJ4">
+        <v>0.8278604569448996</v>
+      </c>
+      <c r="DK4">
+        <v>0.8393941129093473</v>
+      </c>
+      <c r="DL4">
+        <v>0.8946906209949975</v>
+      </c>
+      <c r="DM4">
+        <v>0.9345845545680094</v>
+      </c>
+      <c r="DN4">
+        <v>0.9597388490023833</v>
+      </c>
+      <c r="DO4">
+        <v>0.9761861896395808</v>
+      </c>
+      <c r="DP4">
+        <v>0.9761861896395808</v>
+      </c>
+      <c r="DQ4">
+        <v>0.9995559514493696</v>
+      </c>
+      <c r="DR4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:122">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1956,132 +4527,366 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.007717755286723671</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02737251460279432</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.02753467179156393</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.06452411269623208</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.06863512295402435</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1104690313943706</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1524155111810787</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1524364397045956</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1698359595013874</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1812772460475578</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.2133092203675023</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2356535653672252</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.2359781910157731</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.2647448918397435</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.3164557559671186</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3584924055431528</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.3741899856618019</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.374424717801862</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.3841718199259052</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.4256478619830669</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.5049582821725314</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.6222037214516822</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.6952980014079182</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.7094481383729759</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.7095640415392805</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.7322457483523496</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.7948518049777434</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.8810332687815843</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.9369539047573474</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.9598182154573945</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.9790244696375412</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0.03548486661658995</v>
+      </c>
+      <c r="CL5">
+        <v>0.03548486661658995</v>
+      </c>
+      <c r="CM5">
+        <v>0.1286740882329338</v>
+      </c>
+      <c r="CN5">
+        <v>0.1392589075430707</v>
+      </c>
+      <c r="CO5">
+        <v>0.1392589075430707</v>
+      </c>
+      <c r="CP5">
+        <v>0.1516112055253038</v>
+      </c>
+      <c r="CQ5">
+        <v>0.1816213824410836</v>
+      </c>
+      <c r="CR5">
+        <v>0.2117977782612933</v>
+      </c>
+      <c r="CS5">
+        <v>0.3104567120096652</v>
+      </c>
+      <c r="CT5">
+        <v>0.4333345932682499</v>
+      </c>
+      <c r="CU5">
+        <v>0.5033550793341829</v>
+      </c>
+      <c r="CV5">
+        <v>0.5111571554051403</v>
+      </c>
+      <c r="CW5">
+        <v>0.523226504610008</v>
+      </c>
+      <c r="CX5">
+        <v>0.5587227596457907</v>
+      </c>
+      <c r="CY5">
+        <v>0.5596153399830823</v>
+      </c>
+      <c r="CZ5">
+        <v>0.6016663374131477</v>
+      </c>
+      <c r="DA5">
+        <v>0.6910152584045419</v>
+      </c>
+      <c r="DB5">
+        <v>0.7325437800688739</v>
+      </c>
+      <c r="DC5">
+        <v>0.7439502215232227</v>
+      </c>
+      <c r="DD5">
+        <v>0.7625566725578613</v>
+      </c>
+      <c r="DE5">
+        <v>0.8170062527838223</v>
+      </c>
+      <c r="DF5">
+        <v>0.8612036549471715</v>
+      </c>
+      <c r="DG5">
+        <v>0.8792024439292899</v>
+      </c>
+      <c r="DH5">
+        <v>0.8797703088272664</v>
+      </c>
+      <c r="DI5">
+        <v>0.8943706490550881</v>
+      </c>
+      <c r="DJ5">
+        <v>0.9370117199889454</v>
+      </c>
+      <c r="DK5">
+        <v>0.9715046228314459</v>
+      </c>
+      <c r="DL5">
+        <v>0.9837960623468546</v>
+      </c>
+      <c r="DM5">
+        <v>0.9914571553314943</v>
+      </c>
+      <c r="DN5">
+        <v>0.9945918560882653</v>
+      </c>
+      <c r="DO5">
+        <v>0.9965860283994099</v>
+      </c>
+      <c r="DP5">
+        <v>1</v>
+      </c>
+      <c r="DQ5">
+        <v>1</v>
+      </c>
+      <c r="DR5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:122">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2111,105 +4916,339 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.004885723138668546</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01277168716962402</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.02405074106529036</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.06598949664343637</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1077729501669756</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.1524395250437073</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2498680992765187</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.2541056435112043</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.2845307921019525</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.3164871250219555</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.3488255608722779</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.3744229161110765</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.3748920797559396</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.4068488293387369</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.458136127149268</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.4974570778384827</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.5131488255488605</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.5140976273544081</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.5180217465184431</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.5497488647477182</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.6149390657558076</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.6963466263321776</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.7572636674653901</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.7758973479679794</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.777391699847364</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.7825905967730103</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.8077141228249153</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.8591535925751107</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.9245831123466901</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.9560667156066176</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.976001908447457</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0.1121575723337941</v>
+      </c>
+      <c r="CN6">
+        <v>0.1139286821563375</v>
+      </c>
+      <c r="CO6">
+        <v>0.1916799192443289</v>
+      </c>
+      <c r="CP6">
+        <v>0.2019302903417667</v>
+      </c>
+      <c r="CQ6">
+        <v>0.2237427735710062</v>
+      </c>
+      <c r="CR6">
+        <v>0.2268365366818433</v>
+      </c>
+      <c r="CS6">
+        <v>0.2859359291827401</v>
+      </c>
+      <c r="CT6">
+        <v>0.2959742474110051</v>
+      </c>
+      <c r="CU6">
+        <v>0.3554424033593553</v>
+      </c>
+      <c r="CV6">
+        <v>0.4080998372319893</v>
+      </c>
+      <c r="CW6">
+        <v>0.4407923382279704</v>
+      </c>
+      <c r="CX6">
+        <v>0.4467498392950925</v>
+      </c>
+      <c r="CY6">
+        <v>0.4468476994780957</v>
+      </c>
+      <c r="CZ6">
+        <v>0.4471927028953738</v>
+      </c>
+      <c r="DA6">
+        <v>0.4493001496954912</v>
+      </c>
+      <c r="DB6">
+        <v>0.5201380917200166</v>
+      </c>
+      <c r="DC6">
+        <v>0.6645093455235118</v>
+      </c>
+      <c r="DD6">
+        <v>0.7018109528726411</v>
+      </c>
+      <c r="DE6">
+        <v>0.7527710952677724</v>
+      </c>
+      <c r="DF6">
+        <v>0.7597804257132635</v>
+      </c>
+      <c r="DG6">
+        <v>0.7826825329553856</v>
+      </c>
+      <c r="DH6">
+        <v>0.8257899700607502</v>
+      </c>
+      <c r="DI6">
+        <v>0.8471033947047144</v>
+      </c>
+      <c r="DJ6">
+        <v>0.8471033947047144</v>
+      </c>
+      <c r="DK6">
+        <v>0.8664529120287602</v>
+      </c>
+      <c r="DL6">
+        <v>0.9381553762725456</v>
+      </c>
+      <c r="DM6">
+        <v>0.9733080430816909</v>
+      </c>
+      <c r="DN6">
+        <v>0.9899686440064601</v>
+      </c>
+      <c r="DO6">
+        <v>0.9900587651852556</v>
+      </c>
+      <c r="DP6">
+        <v>0.9914561513914218</v>
+      </c>
+      <c r="DQ6">
+        <v>1</v>
+      </c>
+      <c r="DR6">
         <v>1</v>
       </c>
     </row>
@@ -2228,172 +5267,166 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>0.03092721314511437</v>
+        <v>0.08103569251494777</v>
       </c>
       <c r="F2">
-        <v>0.5598524422954314</v>
+        <v>0.5887013230306191</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="L2">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>0.01131638333491318</v>
+        <v>0.178148546562222</v>
       </c>
       <c r="F3">
-        <v>0.5078878588385143</v>
+        <v>0.5487343912415825</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="L3">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.01411040494641593</v>
+        <v>0.1332616889123791</v>
       </c>
       <c r="F4">
-        <v>0.5555689547787841</v>
+        <v>0.6142927566843098</v>
       </c>
       <c r="G4">
         <v>14</v>
@@ -2402,98 +5435,92 @@
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="L4">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>0.02737251460279432</v>
+        <v>0.1286740882329338</v>
       </c>
       <c r="F5">
-        <v>0.5049582821725314</v>
+        <v>0.5033550793341829</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="L5">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="E6">
-        <v>0.01277168716962402</v>
+        <v>0.1121575723337941</v>
       </c>
       <c r="F6">
-        <v>0.5131488255488605</v>
+        <v>0.5201380917200166</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -2502,28 +5529,25 @@
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="L6">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P6" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2541,302 +5565,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>0.03092721314511437</v>
+        <v>0.08103569251494777</v>
       </c>
       <c r="F2">
-        <v>0.732334987598083</v>
+        <v>0.7020934203426965</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="L2">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>0.01131638333491318</v>
+        <v>0.178148546562222</v>
       </c>
       <c r="F3">
-        <v>0.7690939787177847</v>
+        <v>0.7280753350933393</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="L3">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="E4">
-        <v>0.01411040494641593</v>
+        <v>0.1332616889123791</v>
       </c>
       <c r="F4">
-        <v>0.7709301263885934</v>
+        <v>0.7440031727931966</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="L4">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="E5">
-        <v>0.02737251460279432</v>
+        <v>0.1286740882329338</v>
       </c>
       <c r="F5">
-        <v>0.7094481383729759</v>
+        <v>0.7325437800688739</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="L5">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.01277168716962402</v>
+        <v>0.1121575723337941</v>
       </c>
       <c r="F6">
-        <v>0.7572636674653901</v>
+        <v>0.7018109528726411</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="L6">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P6" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2854,302 +5863,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>0.03092721314511437</v>
+        <v>0.08103569251494777</v>
       </c>
       <c r="F2">
-        <v>0.8185240207913391</v>
+        <v>0.8066611914421951</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="L2">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="E3">
-        <v>0.01131638333491318</v>
+        <v>0.178148546562222</v>
       </c>
       <c r="F3">
-        <v>0.8264289233178861</v>
+        <v>0.8744597329738811</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="L3">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="E4">
-        <v>0.01411040494641593</v>
+        <v>0.1332616889123791</v>
       </c>
       <c r="F4">
-        <v>0.8269712221241894</v>
+        <v>0.8013783715977322</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="L4">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="E5">
-        <v>0.02737251460279432</v>
+        <v>0.1286740882329338</v>
       </c>
       <c r="F5">
-        <v>0.8810332687815843</v>
+        <v>0.8170062527838223</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="L5">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="E6">
-        <v>0.01277168716962402</v>
+        <v>0.1121575723337941</v>
       </c>
       <c r="F6">
-        <v>0.8077141228249153</v>
+        <v>0.8257899700607502</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="L6">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P6" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3167,302 +6161,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>0.03092721314511437</v>
+        <v>0.08103569251494777</v>
       </c>
       <c r="F2">
-        <v>0.9307243307323414</v>
+        <v>0.9329883421175874</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="L2">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="E3">
-        <v>0.01131638333491318</v>
+        <v>0.178148546562222</v>
       </c>
       <c r="F3">
-        <v>0.9330702400983695</v>
+        <v>0.9014054403080567</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="L3">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="E4">
-        <v>0.01411040494641593</v>
+        <v>0.1332616889123791</v>
       </c>
       <c r="F4">
-        <v>0.9111817659389662</v>
+        <v>0.9345845545680094</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="L4">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="E5">
-        <v>0.02737251460279432</v>
+        <v>0.1286740882329338</v>
       </c>
       <c r="F5">
-        <v>0.9369539047573474</v>
+        <v>0.9370117199889454</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="L5">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="E6">
-        <v>0.01277168716962402</v>
+        <v>0.1121575723337941</v>
       </c>
       <c r="F6">
-        <v>0.9245831123466901</v>
+        <v>0.9381553762725456</v>
       </c>
       <c r="G6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="L6">
-        <v>311</v>
+        <v>133</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="P6" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
